--- a/Datafiles/TRASPLANTES.xlsx
+++ b/Datafiles/TRASPLANTES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TRASPLANTE CON METODO VIEJO" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TRASPLANTE CON METODO NUEVO" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TRASPLANTE_METODO_VIEJO" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TRASPLANTE_METODO_NUEVO" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Q" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -384,11 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,13 +412,13 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.17"/>
@@ -2017,13 +2013,13 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21"/>
@@ -2034,7 +2030,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -2060,7 +2056,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2086,7 +2082,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -2112,7 +2108,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -2138,7 +2134,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -2164,7 +2160,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -2190,7 +2186,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -2216,7 +2212,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -2242,7 +2238,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -2268,7 +2264,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -2294,7 +2290,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -2320,7 +2316,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -2346,7 +2342,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -2372,7 +2368,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -2398,7 +2394,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -2424,7 +2420,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -2453,7 +2449,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -2479,7 +2475,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -2505,7 +2501,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -2531,7 +2527,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -2560,7 +2556,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -2586,7 +2582,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2612,7 +2608,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2638,7 +2634,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -2649,7 +2645,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -2675,7 +2671,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -2701,7 +2697,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -2727,7 +2723,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -2753,7 +2749,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -2779,7 +2775,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -2805,7 +2801,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -2831,7 +2827,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -2857,7 +2853,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -2883,7 +2879,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -2909,7 +2905,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -2935,7 +2931,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -2964,7 +2960,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -2990,7 +2986,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -3016,7 +3012,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -3042,7 +3038,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -3068,7 +3064,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -3094,7 +3090,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -3120,7 +3116,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -3146,7 +3142,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -3194,7 +3190,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.55"/>
@@ -3203,95 +3199,95 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
